--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC10.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
   <si>
     <t>Fecha:</t>
   </si>
@@ -602,13 +602,106 @@
     <t>La evolución y la diversidad biológica</t>
   </si>
   <si>
-    <t>Ratón e insectos en suciedad</t>
-  </si>
-  <si>
     <t>Meteorito cayendo</t>
   </si>
   <si>
     <t>Moléculas</t>
+  </si>
+  <si>
+    <t>Moscas en carne</t>
+  </si>
+  <si>
+    <t>Ratón entre basura</t>
+  </si>
+  <si>
+    <t>Ilustración experimento de Redi</t>
+  </si>
+  <si>
+    <t>Ilustración experimento de Pasteur</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Imagen de coacervados</t>
+  </si>
+  <si>
+    <t>Tierra primitiva</t>
+  </si>
+  <si>
+    <t>Mar con moléculas</t>
+  </si>
+  <si>
+    <t>Experimento de Miller y Urey</t>
+  </si>
+  <si>
+    <t>Moléculas orgánicas: glucosa, aminoácidos.</t>
+  </si>
+  <si>
+    <t>http://disproveit.weebly.com/uploads/1/0/3/5/10356112/959248768.gif</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ea/Matraces-Pasteur.png</t>
+  </si>
+  <si>
+    <t>Hacer solo los 8 frascos de la izquierda, los de A y B. Quitar esas letras A y B, pero no las flechas. Hacer que la carne de los frascos inferiores en el caso B se vea igual que las de los frascos superiores, no más aplastada. Cambiar open jars por frascos abiertos, y Tightly sealed jars por frascos cerrados.</t>
+  </si>
+  <si>
+    <t>Hacer solo las dos primeras filas, no la parte B. Quitar en numeral A. Cambiar los textos así: "Líquido no estéril (caldo de carne)" por "Botella con caldo de carne", "Matraz moldeado a la llama en "cuello de cisne"" por "Se dobla el cuello de la botella usando calor". Dejar el siguiente texto como está (El polvo y los microorganismos...), quitar el texto que dice "Líquido enfriado lentamente", el siguiente texto dejarlo igual excepto que se quita la parte que dice "(incluso muchos años)".</t>
+  </si>
+  <si>
+    <t>Solo hacer la tercera fila, y quitar en numeral B. El primer texto de esa parte B se deja igual excepto porque se cambia la expresión "en el "cuello de cisne"" por "en el cuello doblado".</t>
+  </si>
+  <si>
+    <t>296386937 y 65911453</t>
+  </si>
+  <si>
+    <t>Hacer solo la molécula de arriba en cada caso. Escribir debajo de la primera Uracilo, y debajo de la segunda Glicina.</t>
+  </si>
+  <si>
+    <t>Uracilo y Glicina</t>
+  </si>
+  <si>
+    <t>Termal</t>
+  </si>
+  <si>
+    <t>http://origemdavida.blog.com/files/2012/07/coacervados.jpg</t>
+  </si>
+  <si>
+    <t>Poner colores, y quitar la tilde de la palabra agua. El fondo no debe tener color, y las bolitas pequeñas son azules.</t>
+  </si>
+  <si>
+    <t>Fotografía de coacervados</t>
+  </si>
+  <si>
+    <t>http://static.englishdictionary.education/800/coacervate.jpg</t>
+  </si>
+  <si>
+    <t>Hacer la ilustración lo más parecida posible, en términos de textura y color.</t>
+  </si>
+  <si>
+    <t>https://idreamofbiochemistry.files.wordpress.com/2013/04/experi1.jpg</t>
+  </si>
+  <si>
+    <t>Hacer un  mar, en el que haya moléculas como las de los links. Muchas de las pequeñas, y pocas de las grandes. No es necesario bajar esas imágenes, si se hacen las ilustraciones.</t>
+  </si>
+  <si>
+    <t>133620029, 136947467, 335612552, 231783400, 231783400, 296386943</t>
+  </si>
+  <si>
+    <t>Cambiar los términos así: earth's primitive oceans por Océanos de la tierra primitiva, cloud formation por formación de nubes, prmitive atmosphere por atmósfera primitiva, spark por electricidad, condensing column por columna de consensación, power supply por fuente de poder, boiling flask por matraz de ebullición.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.co/imgres?imgurl=http://2.bp.blogspot.com/_cFUl96eiH0s/Sb_fc0b1T7I/AAAAAAAAACM/-zkqzVX24tc/s72-c/superficie-primitiva.jpg&amp;imgrefurl=http://misalumnosliceo48.blogspot.com/2009/03/la-tierra-primitiva.html&amp;h=200&amp;w=300&amp;tbnid=rmbDSkWJYGpJzM:&amp;docid=0KEbxu9GBJwhvM&amp;ei=YTYDV6WGKM7letLFkLAC&amp;tbm=isch&amp;ved=0ahUKEwjluq6kzPbLAhXOsh4KHdIiBCYQMwgbKAAwAA#h=200&amp;w=300</t>
+  </si>
+  <si>
+    <t>Ilustrar. Debe haber mar, tormenta eléctrica y volcanes.</t>
+  </si>
+  <si>
+    <t>112834702, 115826815</t>
+  </si>
+  <si>
+    <t>Escribir bajo la primera molécula "Glucosa", y bajo la segunda "Alanina".</t>
   </si>
 </sst>
 </file>
@@ -2485,8 +2578,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2873,7 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62">
-        <v>1</v>
+        <v>377593231</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2809,7 +2902,7 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2822,7 +2915,9 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="62">
+        <v>296869262</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
@@ -2850,7 +2945,7 @@
         <v/>
       </c>
       <c r="J11" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -2863,7 +2958,9 @@
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="62">
+        <v>337404278</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
@@ -2891,7 +2988,7 @@
         <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2899,423 +2996,537 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>260530043</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>188</v>
+      </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>203</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>205</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>206</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>207</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>209</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62">
+        <v>325041842</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>211</v>
+      </c>
       <c r="K18" s="64"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>212</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>213</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>215</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>216</v>
+      </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B21" s="62"/>
+        <v>IMG12</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>221</v>
+      </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG12n.jpg</v>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG12a.jpg</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>222</v>
+      </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>219</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG13n.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG13a.jpg</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="69"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>218</v>
+      </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>217</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG14n.jpg</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG14a.jpg</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>220</v>
+      </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B24" s="62"/>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>223</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC10_IMG15n.jpg</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC10_IMG15a.jpg</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>224</v>
+      </c>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
